--- a/id_bits.xlsx
+++ b/id_bits.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\dcooke\ARM-Disassembler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A9924-59AD-443B-8373-8DC1DBCEF1AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,152 +27,149 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="46">
   <si>
-    <t xml:space="preserve">Bits:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Processing / PSR Transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 id bits, Section 4.6 MRS and MSR instructions form the PSR transfer instructionset, formed from a subset of the instructions in Data Processing (TEQ, TST, CMN, CMP without the S flag set)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5 + 4.6 (special case)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 id bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUL, MLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 id bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULL, MLAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Data Swap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 id bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch and Exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 id bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halfword Data Transfer: register offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDRH, STRH, LDRSB,  LDRSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halfword Data Transfer: immediate offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 id bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Data Transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 id bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDR, STR</t>
+    <t>Bits:</t>
+  </si>
+  <si>
+    <t>Type:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Data Processing / PSR Transfer</t>
+  </si>
+  <si>
+    <t>2 id bits, Section 4.6 MRS and MSR instructions form the PSR transfer instructionset, formed from a subset of the instructions in Data Processing (TEQ, TST, CMN, CMP without the S flag set)</t>
+  </si>
+  <si>
+    <t>4.5 + 4.6 (special case)</t>
+  </si>
+  <si>
+    <t>Multiply</t>
+  </si>
+  <si>
+    <t>10 id bits</t>
+  </si>
+  <si>
+    <t>MUL, MLA</t>
+  </si>
+  <si>
+    <t>Multiply Long</t>
+  </si>
+  <si>
+    <t>9 id bits</t>
+  </si>
+  <si>
+    <t>MULL, MLAL</t>
+  </si>
+  <si>
+    <t>Single Data Swap</t>
+  </si>
+  <si>
+    <t>15 id bits</t>
+  </si>
+  <si>
+    <t>SWP</t>
+  </si>
+  <si>
+    <t>Branch and Exchange</t>
+  </si>
+  <si>
+    <t>24 id bits</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>Halfword Data Transfer: register offset</t>
+  </si>
+  <si>
+    <t>4.10.</t>
+  </si>
+  <si>
+    <t>LDRH, STRH, LDRSB,  LDRSH</t>
+  </si>
+  <si>
+    <t>Halfword Data Transfer: immediate offset</t>
+  </si>
+  <si>
+    <t>6 id bits</t>
+  </si>
+  <si>
+    <t>Single Data Transfer</t>
+  </si>
+  <si>
+    <t>2 id bits</t>
+  </si>
+  <si>
+    <t>LDR, STR</t>
   </si>
   <si>
     <t xml:space="preserve">UNDEFINED </t>
   </si>
   <si>
-    <t xml:space="preserve">4 id bits, idk if we need to do anything with this</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block Data Transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 id bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDM, STM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B, BL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coprocessor Data Transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDC, STC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coprocessor Data Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 id bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coprocessor Register Transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRC, MCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Interupt</t>
+    <t>4 id bits, idk if we need to do anything with this</t>
+  </si>
+  <si>
+    <t>Block Data Transfer</t>
+  </si>
+  <si>
+    <t>3 id bits</t>
+  </si>
+  <si>
+    <t>LDM, STM</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>B, BL</t>
+  </si>
+  <si>
+    <t>Coprocessor Data Transfer</t>
+  </si>
+  <si>
+    <t>LDC, STC</t>
+  </si>
+  <si>
+    <t>Coprocessor Data Operation</t>
+  </si>
+  <si>
+    <t>5 id bits</t>
+  </si>
+  <si>
+    <t>CDP</t>
+  </si>
+  <si>
+    <t>Coprocessor Register Transfer</t>
+  </si>
+  <si>
+    <t>MRC, MCR</t>
+  </si>
+  <si>
+    <t>Software Interupt</t>
   </si>
   <si>
     <t xml:space="preserve">4 id bits </t>
   </si>
   <si>
-    <t xml:space="preserve">SWI</t>
+    <t>SWI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -176,22 +178,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -220,7 +207,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -228,105 +215,364 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AJ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH19" activeCellId="0" sqref="AH19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="1" style="0" width="3.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="33.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="43.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="23.82"/>
+    <col min="1" max="32" width="3.28515625" customWidth="1"/>
+    <col min="33" max="33" width="33.5703125" customWidth="1"/>
+    <col min="34" max="34" width="167" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" customWidth="1"/>
+    <col min="36" max="36" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -374,106 +620,106 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>31</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="4">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="4">
         <v>26</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="4">
         <v>25</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="4">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="4">
         <v>23</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="4">
         <v>22</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="4">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="4">
         <v>20</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="4">
         <v>19</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="4">
         <v>18</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="4">
         <v>17</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="4">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="4">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="4">
         <v>14</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="4">
         <v>13</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="4">
         <v>12</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="4">
         <v>11</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="4">
         <v>10</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="4">
         <v>9</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="4">
         <v>8</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="4">
         <v>7</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="4">
         <v>6</v>
       </c>
-      <c r="AA2" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AA2" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="4">
         <v>4</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="4">
         <v>3</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="4">
         <v>2</v>
       </c>
-      <c r="AE2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AE2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="4">
         <v>0</v>
       </c>
       <c r="AH2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -486,10 +732,10 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -570,17 +816,17 @@
       <c r="AF3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="0" t="s">
+      <c r="AG3" t="s">
         <v>6</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AI3" s="0" t="s">
+      <c r="AI3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -593,22 +839,22 @@
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="n">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -653,16 +899,16 @@
       <c r="X4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="4" t="n">
+      <c r="Y4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
         <v>1</v>
       </c>
       <c r="AC4" s="4" t="s">
@@ -683,14 +929,14 @@
       <c r="AH4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AI4">
         <v>4.7</v>
       </c>
-      <c r="AJ4" s="0" t="s">
+      <c r="AJ4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -703,19 +949,19 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -763,16 +1009,16 @@
       <c r="X5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="4" t="n">
+      <c r="Y5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
         <v>1</v>
       </c>
       <c r="AC5" s="4" t="s">
@@ -793,14 +1039,14 @@
       <c r="AH5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AI5">
         <v>4.8</v>
       </c>
-      <c r="AJ5" s="0" t="s">
+      <c r="AJ5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -813,28 +1059,28 @@
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
         <v>0</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -861,28 +1107,28 @@
       <c r="T6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="n">
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
         <v>1</v>
       </c>
       <c r="AC6" s="4" t="s">
@@ -903,14 +1149,14 @@
       <c r="AH6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AI6">
         <v>4.12</v>
       </c>
-      <c r="AJ6" s="0" t="s">
+      <c r="AJ6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -923,76 +1169,76 @@
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="4" t="n">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
         <v>1</v>
       </c>
       <c r="AC7" s="4" t="s">
@@ -1013,14 +1259,14 @@
       <c r="AH7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AI7">
         <v>4.3</v>
       </c>
-      <c r="AJ7" s="0" t="s">
+      <c r="AJ7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1033,13 +1279,13 @@
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="n">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -1048,7 +1294,7 @@
       <c r="I8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -1081,19 +1327,19 @@
       <c r="T8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4" t="n">
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
         <v>1</v>
       </c>
       <c r="Z8" s="4" t="s">
@@ -1102,7 +1348,7 @@
       <c r="AA8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AB8" s="4" t="n">
+      <c r="AB8" s="4">
         <v>1</v>
       </c>
       <c r="AC8" s="4" t="s">
@@ -1123,14 +1369,14 @@
       <c r="AH8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="0" t="s">
+      <c r="AI8" t="s">
         <v>22</v>
       </c>
       <c r="AJ8" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1143,13 +1389,13 @@
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -1158,7 +1404,7 @@
       <c r="I9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1203,7 +1449,7 @@
       <c r="X9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Y9" s="4" t="n">
+      <c r="Y9" s="4">
         <v>1</v>
       </c>
       <c r="Z9" s="4" t="s">
@@ -1212,7 +1458,7 @@
       <c r="AA9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="4" t="n">
+      <c r="AB9" s="4">
         <v>1</v>
       </c>
       <c r="AC9" s="4" t="s">
@@ -1233,14 +1479,14 @@
       <c r="AH9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AI9" s="0" t="s">
+      <c r="AI9" t="s">
         <v>22</v>
       </c>
       <c r="AJ9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1253,10 +1499,10 @@
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1343,14 +1589,14 @@
       <c r="AH10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AI10" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AJ10" s="0" t="s">
+      <c r="AI10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1363,13 +1609,13 @@
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="n">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
         <v>1</v>
       </c>
       <c r="H11" s="8"/>
@@ -1392,7 +1638,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="4" t="n">
+      <c r="AB11" s="4">
         <v>1</v>
       </c>
       <c r="AC11" s="8"/>
@@ -1406,7 +1652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1419,13 +1665,13 @@
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="n">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -1509,14 +1755,14 @@
       <c r="AH12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI12" s="0" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AJ12" s="0" t="s">
+      <c r="AI12">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1529,13 +1775,13 @@
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="n">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -1619,14 +1865,14 @@
       <c r="AH13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI13" s="0" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ13" s="0" t="s">
+      <c r="AI13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -1639,13 +1885,13 @@
       <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="n">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -1729,14 +1975,14 @@
       <c r="AH14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI14" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AJ14" s="0" t="s">
+      <c r="AI14">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1749,16 +1995,16 @@
       <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="n">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -1818,7 +2064,7 @@
       <c r="AA15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AB15" s="4" t="n">
+      <c r="AB15" s="4">
         <v>0</v>
       </c>
       <c r="AC15" s="4" t="s">
@@ -1839,14 +2085,14 @@
       <c r="AH15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AI15" s="0" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="AJ15" s="0" t="s">
+      <c r="AI15">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1859,16 +2105,16 @@
       <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="n">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -1928,7 +2174,7 @@
       <c r="AA16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AB16" s="4" t="n">
+      <c r="AB16" s="4">
         <v>1</v>
       </c>
       <c r="AC16" s="4" t="s">
@@ -1949,14 +2195,14 @@
       <c r="AH16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AI16">
         <v>4.16</v>
       </c>
-      <c r="AJ16" s="0" t="s">
+      <c r="AJ16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1969,16 +2215,16 @@
       <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="n">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
         <v>1</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -2059,14 +2305,14 @@
       <c r="AH17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AI17">
         <v>4.13</v>
       </c>
-      <c r="AJ17" s="0" t="s">
+      <c r="AJ17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2100,17 +2346,11 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:AF1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>